--- a/char/Uldar/Uldar Brightwood.xlsx
+++ b/char/Uldar/Uldar Brightwood.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Characters" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Skills" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Characters" sheetId="1" r:id="rId1"/>
+    <sheet name="Skills" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Skills!1:2,Skills!A:M</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="177">
   <si>
     <t>Rolemaster Character Record</t>
   </si>
@@ -552,59 +554,59 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt formatCode="#,###" numFmtId="164"/>
-    <numFmt formatCode="#,##0.0" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="Old English Text MT"/>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
       <name val="Old English Text MT"/>
-      <b val="1"/>
-      <sz val="18"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00969696"/>
+        <fgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFFF"/>
+        <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,28 +619,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -646,158 +666,216 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1085,845 +1163,876 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14"/>
-    <col customWidth="1" max="2" min="2" width="8.25"/>
-    <col customWidth="1" max="3" min="3" width="8.25"/>
-    <col customWidth="1" max="5" min="5" width="10.85"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="3" t="n"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="3">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="n"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="27"/>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="6">
         <v>134011</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="6">
         <v>150000</v>
       </c>
-      <c r="I3" s="7" t="n"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="7">
         <v>75</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="I4" s="7" t="n"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="n"/>
-      <c r="I5" s="7" t="n"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="2"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="n"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="3" t="n"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="27"/>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="7">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <f>IF(SUM(F8:F11)-F12&lt;0,0,SUM(F8:F11)-F12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <f>I8+0</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="2"/>
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <f>I8+0</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="2"/>
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <f>I8-20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5" t="s"/>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <f>I8+0+-5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5" t="s"/>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="2"/>
+      <c r="E13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="7" t="n"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="13" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="7" t="n"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="17" t="s">
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="18" t="n"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="7" t="n"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="20" t="n"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="12" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="31"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="B19" s="27"/>
+      <c r="C19" s="8">
         <v>6</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="12" t="n">
+      <c r="B20" s="27"/>
+      <c r="C20" s="8">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="8">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="22" t="n">
+      <c r="B21" s="27"/>
+      <c r="C21" s="14">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="n">
+      <c r="D21" s="14">
         <v>4</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="3" t="n"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4" t="s"/>
-      <c r="C22" s="12" t="s"/>
-      <c r="D22" s="12" t="s"/>
-      <c r="E22" s="8" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="34"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="7">
         <v>12</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="9">
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4" t="s"/>
-      <c r="C23" s="12" t="s"/>
-      <c r="D23" s="12" t="s"/>
-      <c r="E23" s="8" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="34"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="7">
         <v>10</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="4" t="s"/>
-      <c r="C24" s="12" t="s"/>
-      <c r="D24" s="12" t="s"/>
-      <c r="E24" s="8" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="34"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="3" t="n"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="16" t="n"/>
-      <c r="I26" s="7" t="n"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="16" t="n"/>
-      <c r="I27" s="7" t="n"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="16" t="n"/>
-      <c r="I28" s="7" t="n"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="16" t="n"/>
-      <c r="I29" s="7" t="n"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="16" t="n"/>
-      <c r="I30" s="7" t="n"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="16" t="n"/>
-      <c r="I31" s="7" t="n"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="16" t="n"/>
-      <c r="I32" s="7" t="n"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="20" t="n"/>
-      <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="n"/>
-      <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
-      <c r="F33" s="21" t="n"/>
-      <c r="G33" s="21" t="n"/>
-      <c r="H33" s="21" t="n"/>
-      <c r="I33" s="23" t="n"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="24" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="35"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="35"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="35"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="35"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="35"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="35"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="35"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="31"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="16" t="n"/>
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="27" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="16" t="n"/>
-      <c r="I35" s="28" t="n"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="29" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="8">
         <v>77</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="C36" s="8">
         <v>77</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="8">
         <v>10</v>
       </c>
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="8">
         <v>5</v>
       </c>
-      <c r="F36" s="12" t="n">
+      <c r="F36" s="8">
         <v>5</v>
       </c>
-      <c r="G36" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30" t="n"/>
-      <c r="I36" s="30" t="n"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="29" t="s">
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="8">
         <v>90</v>
       </c>
-      <c r="C37" s="12" t="n">
+      <c r="C37" s="8">
         <v>96</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="8">
         <v>20</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="F37" s="12" t="n">
+      <c r="F37" s="8">
         <v>10</v>
       </c>
-      <c r="G37" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="30" t="n"/>
-      <c r="I37" s="30" t="n"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="29" t="s">
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="8">
         <v>75</v>
       </c>
-      <c r="C38" s="12" t="n">
+      <c r="C38" s="8">
         <v>76</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="8">
         <v>15</v>
       </c>
-      <c r="E38" s="12" t="n">
+      <c r="E38" s="8">
         <v>5</v>
       </c>
-      <c r="F38" s="12" t="n">
+      <c r="F38" s="8">
         <v>10</v>
       </c>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="8">
         <v>15</v>
       </c>
-      <c r="H38" s="30" t="n"/>
-      <c r="I38" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="29" t="s">
+      <c r="H38" s="17"/>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="8">
         <v>88</v>
       </c>
-      <c r="C39" s="12" t="n">
+      <c r="C39" s="8">
         <v>90</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="8">
         <v>9</v>
       </c>
-      <c r="E39" s="12" t="n">
+      <c r="E39" s="8">
         <v>9</v>
       </c>
-      <c r="F39" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30" t="n"/>
-      <c r="I39" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="29" t="s">
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="8">
         <v>96</v>
       </c>
-      <c r="C40" s="12" t="n">
+      <c r="C40" s="8">
         <v>96</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="8">
         <v>17</v>
       </c>
-      <c r="E40" s="12" t="n">
+      <c r="E40" s="8">
         <v>17</v>
       </c>
-      <c r="F40" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="30" t="n"/>
-      <c r="I40" s="31" t="s">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="8">
         <v>82</v>
       </c>
-      <c r="C41" s="12" t="n">
+      <c r="C41" s="8">
         <v>82</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="8">
         <v>12</v>
       </c>
-      <c r="E41" s="12" t="n">
+      <c r="E41" s="8">
         <v>7</v>
       </c>
-      <c r="F41" s="12" t="n">
+      <c r="F41" s="8">
         <v>5</v>
       </c>
-      <c r="G41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="31" t="n">
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
         <v>7.7</v>
       </c>
-      <c r="I41" s="30" t="n"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="29" t="s">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="8">
         <v>86</v>
       </c>
-      <c r="C42" s="12" t="n">
+      <c r="C42" s="8">
         <v>86</v>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="8">
         <v>13</v>
       </c>
-      <c r="E42" s="12" t="n">
+      <c r="E42" s="8">
         <v>8</v>
       </c>
-      <c r="F42" s="12" t="n">
+      <c r="F42" s="8">
         <v>5</v>
       </c>
-      <c r="G42" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="31" t="n">
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
         <v>8</v>
       </c>
-      <c r="I42" s="30" t="n"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="29" t="s">
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="8">
         <v>84</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="8">
         <v>85</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="8">
         <v>-2</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="8">
         <v>8</v>
       </c>
-      <c r="F43" s="12" t="n">
+      <c r="F43" s="8">
         <v>-10</v>
       </c>
-      <c r="G43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="31" t="n">
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
         <v>8</v>
       </c>
-      <c r="I43" s="30" t="n"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="29" t="s">
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="8">
         <v>86</v>
       </c>
-      <c r="C44" s="12" t="n">
+      <c r="C44" s="8">
         <v>86</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="8">
         <v>8</v>
       </c>
-      <c r="E44" s="12" t="n">
+      <c r="E44" s="8">
         <v>8</v>
       </c>
-      <c r="F44" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12" t="n">
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
         <v>25</v>
       </c>
-      <c r="H44" s="31" t="n">
+      <c r="H44" s="18">
         <v>8</v>
       </c>
-      <c r="I44" s="30" t="n"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="29" t="s">
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="8">
         <v>90</v>
       </c>
-      <c r="C45" s="12" t="n">
+      <c r="C45" s="8">
         <v>90</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="8">
         <v>10</v>
       </c>
-      <c r="E45" s="12" t="n">
+      <c r="E45" s="8">
         <v>10</v>
       </c>
-      <c r="F45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="31" t="n">
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
         <v>8.4</v>
       </c>
-      <c r="I45" s="30" t="n"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="H46" s="12" t="n">
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="H46" s="8">
         <v>40.1</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="8">
         <f>(2.2*9)</f>
-        <v/>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
@@ -1932,1778 +2041,2246 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
   </mergeCells>
-  <pageMargins bottom="0.5" footer="0.5" header="0.5" left="0.75" right="0.75" top="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="26"/>
-    <col customWidth="1" max="2" min="2" width="5.5"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="6.5"/>
-    <col customWidth="1" max="5" min="5" width="6.5"/>
-    <col customWidth="1" max="6" min="6" width="6.5"/>
-    <col customWidth="1" max="7" min="7" width="5.5"/>
-    <col customWidth="1" max="8" min="8" width="5"/>
-    <col customWidth="1" max="9" min="9" width="5"/>
-    <col customWidth="1" max="10" min="10" width="5"/>
-    <col customWidth="1" max="11" min="11" width="5"/>
-    <col customWidth="1" max="12" min="12" width="5"/>
-    <col customWidth="1" max="13" min="13" width="7"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="34" t="n"/>
-      <c r="I1" s="33" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="35" t="n"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="36" t="n"/>
-      <c r="B2" s="34" t="n"/>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="33" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22" t="n">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
         <v>5</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="14">
         <v>21</v>
       </c>
-      <c r="K3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38" t="n">
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22" t="n">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
         <v>5</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="J4" s="14">
         <v>21</v>
       </c>
-      <c r="K4" s="22" t="n">
+      <c r="K4" s="14">
         <v>18</v>
       </c>
-      <c r="L4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38" t="n">
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22" t="n">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="n">
+      <c r="G5" s="14">
         <v>10</v>
       </c>
-      <c r="H5" s="22" t="n">
+      <c r="H5" s="14">
         <v>12</v>
       </c>
-      <c r="I5" s="22" t="n">
+      <c r="I5" s="14">
         <v>54</v>
       </c>
-      <c r="J5" s="22" t="n">
+      <c r="J5" s="14">
         <v>13</v>
       </c>
-      <c r="K5" s="22" t="n">
+      <c r="K5" s="14">
         <v>27</v>
       </c>
-      <c r="L5" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38" t="n">
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="n">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <v>2</v>
       </c>
-      <c r="H6" s="22" t="n">
+      <c r="H6" s="14">
         <v>3</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="14">
         <v>15</v>
       </c>
-      <c r="J6" s="22" t="n">
+      <c r="J6" s="14">
         <v>21</v>
       </c>
-      <c r="K6" s="22" t="n">
+      <c r="K6" s="14">
         <v>18</v>
       </c>
-      <c r="L6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38" t="n">
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22" t="n">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
         <v>7</v>
       </c>
-      <c r="H7" s="22" t="n">
+      <c r="H7" s="14">
         <v>9</v>
       </c>
-      <c r="I7" s="22" t="n">
+      <c r="I7" s="14">
         <v>45</v>
       </c>
-      <c r="J7" s="22" t="n">
+      <c r="J7" s="14">
         <v>12</v>
       </c>
-      <c r="K7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38" t="n">
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="n">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="I8" s="14">
         <v>10</v>
       </c>
-      <c r="J8" s="22" t="n">
+      <c r="J8" s="14">
         <v>13</v>
       </c>
-      <c r="K8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38" t="n">
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22" t="n">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
         <v>2</v>
       </c>
-      <c r="H9" s="22" t="n">
+      <c r="H9" s="14">
         <v>4</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="14">
         <v>20</v>
       </c>
-      <c r="J9" s="22" t="n">
+      <c r="J9" s="14">
         <v>11</v>
       </c>
-      <c r="K9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="38" t="n">
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="n">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <v>8</v>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="H10" s="14">
         <v>11</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="I10" s="14">
         <v>52</v>
       </c>
-      <c r="J10" s="22" t="n">
+      <c r="J10" s="14">
         <v>21</v>
       </c>
-      <c r="K10" s="22" t="n">
+      <c r="K10" s="14">
         <v>18</v>
       </c>
-      <c r="L10" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="38" t="n">
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22" t="n">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="H11" s="14">
         <v>2</v>
       </c>
-      <c r="I11" s="22" t="n">
+      <c r="I11" s="14">
         <v>10</v>
       </c>
-      <c r="J11" s="22" t="n">
+      <c r="J11" s="14">
         <v>9</v>
       </c>
-      <c r="K11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="38" t="n">
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="n">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
         <v>5</v>
       </c>
-      <c r="J12" s="22" t="n">
+      <c r="J12" s="14">
         <v>9</v>
       </c>
-      <c r="K12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38" t="n">
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22" t="n">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <v>8</v>
       </c>
-      <c r="H13" s="22" t="n">
+      <c r="H13" s="14">
         <v>8</v>
       </c>
-      <c r="I13" s="22" t="n">
+      <c r="I13" s="14">
         <v>40</v>
       </c>
-      <c r="J13" s="22" t="n">
+      <c r="J13" s="14">
         <v>13</v>
       </c>
-      <c r="K13" s="22" t="n">
+      <c r="K13" s="14">
         <v>27</v>
       </c>
-      <c r="L13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38" t="n">
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22" t="n">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
         <v>5</v>
       </c>
-      <c r="J14" s="22" t="n">
+      <c r="J14" s="14">
         <v>13</v>
       </c>
-      <c r="K14" s="22" t="n">
+      <c r="K14" s="14">
         <v>27</v>
       </c>
-      <c r="L14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38" t="n">
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="n">
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
         <v>4</v>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="H15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="22" t="n">
+      <c r="I15" s="14">
         <v>20</v>
       </c>
-      <c r="J15" s="22" t="n">
+      <c r="J15" s="14">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="n">
+      <c r="K15" s="14">
         <v>27</v>
       </c>
-      <c r="L15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38" t="n">
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22" t="n">
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
         <v>10</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="14">
         <v>10</v>
       </c>
-      <c r="I16" s="22" t="n">
+      <c r="I16" s="14">
         <v>50</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="14">
         <v>13</v>
       </c>
-      <c r="K16" s="22" t="n">
+      <c r="K16" s="14">
         <v>27</v>
       </c>
-      <c r="L16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="38" t="n">
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22" t="n">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
         <v>3</v>
       </c>
-      <c r="H17" s="22" t="n">
+      <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="22" t="n">
+      <c r="I17" s="14">
         <v>15</v>
       </c>
-      <c r="J17" s="22" t="n">
+      <c r="J17" s="14">
         <v>21</v>
       </c>
-      <c r="K17" s="22" t="n">
+      <c r="K17" s="14">
         <v>18</v>
       </c>
-      <c r="L17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="38" t="n">
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22" t="n">
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
         <v>5</v>
       </c>
-      <c r="H18" s="22" t="n">
+      <c r="H18" s="14">
         <v>5</v>
       </c>
-      <c r="I18" s="22" t="n">
+      <c r="I18" s="14">
         <v>25</v>
       </c>
-      <c r="J18" s="22" t="n">
+      <c r="J18" s="14">
         <v>21</v>
       </c>
-      <c r="K18" s="22" t="n">
+      <c r="K18" s="14">
         <v>18</v>
       </c>
-      <c r="L18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="38" t="n">
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22" t="n">
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
         <v>5</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="14">
         <v>7</v>
       </c>
-      <c r="I19" s="22" t="n">
+      <c r="I19" s="14">
         <v>35</v>
       </c>
-      <c r="J19" s="22" t="n">
+      <c r="J19" s="14">
         <v>7</v>
       </c>
-      <c r="K19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="38" t="n">
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22" t="n">
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
         <v>5</v>
       </c>
-      <c r="J20" s="22" t="n">
+      <c r="J20" s="14">
         <v>21</v>
       </c>
-      <c r="K20" s="22" t="n">
+      <c r="K20" s="14">
         <v>18</v>
       </c>
-      <c r="L20" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="38" t="n">
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22" t="n">
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
         <v>5</v>
       </c>
-      <c r="J21" s="22" t="n">
+      <c r="J21" s="14">
         <v>21</v>
       </c>
-      <c r="K21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="38" t="n">
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="n">
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
         <v>8</v>
       </c>
-      <c r="H22" s="22" t="n">
+      <c r="H22" s="14">
         <v>9</v>
       </c>
-      <c r="I22" s="22" t="n">
+      <c r="I22" s="14">
         <v>45</v>
       </c>
-      <c r="J22" s="22" t="n">
+      <c r="J22" s="14">
         <v>9</v>
       </c>
-      <c r="K22" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="38" t="n">
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="22" t="n">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
         <v>5</v>
       </c>
-      <c r="J23" s="22" t="n">
+      <c r="J23" s="14">
         <v>5</v>
       </c>
-      <c r="K23" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="38" t="n">
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22" t="n">
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
         <v>3</v>
       </c>
-      <c r="H24" s="22" t="n">
+      <c r="H24" s="14">
         <v>3</v>
       </c>
-      <c r="I24" s="22" t="n">
+      <c r="I24" s="14">
         <v>15</v>
       </c>
-      <c r="J24" s="22" t="n">
+      <c r="J24" s="14">
         <v>9</v>
       </c>
-      <c r="K24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="38" t="n">
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="22" t="n">
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
         <v>5</v>
       </c>
-      <c r="J25" s="22" t="n">
+      <c r="J25" s="14">
         <v>9</v>
       </c>
-      <c r="K25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="38" t="n">
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22" t="n">
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
         <v>5</v>
       </c>
-      <c r="J26" s="22" t="n">
+      <c r="J26" s="14">
         <v>21</v>
       </c>
-      <c r="K26" s="22" t="n">
+      <c r="K26" s="14">
         <v>18</v>
       </c>
-      <c r="L26" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="38" t="n">
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22" t="n">
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
         <v>5</v>
       </c>
-      <c r="J27" s="22" t="n">
+      <c r="J27" s="14">
         <v>14</v>
       </c>
-      <c r="K27" s="22" t="n">
+      <c r="K27" s="14">
         <v>9</v>
       </c>
-      <c r="L27" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="38" t="n">
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22" t="n">
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
         <v>3</v>
       </c>
-      <c r="H28" s="22" t="n">
+      <c r="H28" s="14">
         <v>3</v>
       </c>
-      <c r="I28" s="22" t="n">
+      <c r="I28" s="14">
         <v>15</v>
       </c>
-      <c r="J28" s="22" t="n">
+      <c r="J28" s="14">
         <v>15</v>
       </c>
-      <c r="K28" s="22" t="n">
+      <c r="K28" s="14">
         <v>9</v>
       </c>
-      <c r="L28" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="38" t="n">
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22" t="n">
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
         <v>2</v>
       </c>
-      <c r="G29" s="22" t="n">
+      <c r="G29" s="14">
         <v>4</v>
       </c>
-      <c r="H29" s="22" t="n">
+      <c r="H29" s="14">
         <v>7</v>
       </c>
-      <c r="I29" s="22" t="n">
+      <c r="I29" s="14">
         <v>35</v>
       </c>
-      <c r="J29" s="22" t="n">
+      <c r="J29" s="14">
         <v>21</v>
       </c>
-      <c r="K29" s="22" t="n">
+      <c r="K29" s="14">
         <v>18</v>
       </c>
-      <c r="L29" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="38" t="n">
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="22" t="n">
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
         <v>6</v>
       </c>
-      <c r="H30" s="22" t="n">
+      <c r="H30" s="14">
         <v>8</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="I30" s="14">
         <v>40</v>
       </c>
-      <c r="J30" s="22" t="n">
+      <c r="J30" s="14">
         <v>11</v>
       </c>
-      <c r="K30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="38" t="n">
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="22" t="n">
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14">
         <v>2</v>
       </c>
-      <c r="H31" s="22" t="n">
+      <c r="H31" s="14">
         <v>4</v>
       </c>
-      <c r="I31" s="22" t="n">
+      <c r="I31" s="14">
         <v>20</v>
       </c>
-      <c r="J31" s="22" t="n">
+      <c r="J31" s="14">
         <v>21</v>
       </c>
-      <c r="K31" s="22" t="n">
+      <c r="K31" s="14">
         <v>18</v>
       </c>
-      <c r="L31" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="38" t="n">
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="22" t="n">
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
         <v>4</v>
       </c>
-      <c r="H32" s="22" t="n">
+      <c r="H32" s="14">
         <v>6</v>
       </c>
-      <c r="I32" s="22" t="n">
+      <c r="I32" s="14">
         <v>30</v>
       </c>
-      <c r="J32" s="22" t="n">
+      <c r="J32" s="14">
         <v>21</v>
       </c>
-      <c r="K32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="38" t="n">
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22" t="n">
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
         <v>2</v>
       </c>
-      <c r="H33" s="22" t="n">
+      <c r="H33" s="14">
         <v>3</v>
       </c>
-      <c r="I33" s="22" t="n">
+      <c r="I33" s="14">
         <v>15</v>
       </c>
-      <c r="J33" s="22" t="n">
+      <c r="J33" s="14">
         <v>15</v>
       </c>
-      <c r="K33" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="38" t="n">
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22" t="n">
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
         <v>2</v>
       </c>
-      <c r="H34" s="22" t="n">
+      <c r="H34" s="14">
         <v>3</v>
       </c>
-      <c r="I34" s="22" t="n">
+      <c r="I34" s="14">
         <v>15</v>
       </c>
-      <c r="J34" s="22" t="n">
+      <c r="J34" s="14">
         <v>23</v>
       </c>
-      <c r="K34" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="38" t="n">
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="22" t="n">
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
         <v>6</v>
       </c>
-      <c r="H35" s="22" t="n">
+      <c r="H35" s="14">
         <v>7</v>
       </c>
-      <c r="I35" s="22" t="n">
+      <c r="I35" s="14">
         <v>35</v>
       </c>
-      <c r="J35" s="22" t="n">
+      <c r="J35" s="14">
         <v>13</v>
       </c>
-      <c r="K35" s="22" t="n">
+      <c r="K35" s="14">
         <v>27</v>
       </c>
-      <c r="L35" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="38" t="n">
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="22" t="n">
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
         <v>5</v>
       </c>
-      <c r="H36" s="22" t="n">
+      <c r="H36" s="14">
         <v>6</v>
       </c>
-      <c r="I36" s="22" t="n">
+      <c r="I36" s="14">
         <v>30</v>
       </c>
-      <c r="J36" s="22" t="n">
+      <c r="J36" s="14">
         <v>9</v>
       </c>
-      <c r="K36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="38" t="n">
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="22" t="n">
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
         <v>4</v>
       </c>
-      <c r="G37" s="22" t="n">
+      <c r="G37" s="14">
         <v>24</v>
       </c>
-      <c r="H37" s="22" t="n">
+      <c r="H37" s="14">
         <v>28</v>
       </c>
-      <c r="I37" s="22" t="n">
+      <c r="I37" s="14">
         <v>78</v>
       </c>
-      <c r="J37" s="22" t="n">
+      <c r="J37" s="14">
         <v>17</v>
       </c>
-      <c r="K37" s="22" t="n">
+      <c r="K37" s="14">
         <v>27</v>
       </c>
-      <c r="L37" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="38" t="n">
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="22" t="n">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
         <v>3</v>
       </c>
-      <c r="H38" s="22" t="n">
+      <c r="H38" s="14">
         <v>3</v>
       </c>
-      <c r="I38" s="22" t="n">
+      <c r="I38" s="14">
         <v>15</v>
       </c>
-      <c r="J38" s="22" t="n">
+      <c r="J38" s="14">
         <v>17</v>
       </c>
-      <c r="K38" s="22" t="n">
+      <c r="K38" s="14">
         <v>27</v>
       </c>
-      <c r="L38" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="38" t="n">
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22" t="n">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
         <v>3</v>
       </c>
-      <c r="H39" s="22" t="n">
+      <c r="H39" s="14">
         <v>4</v>
       </c>
-      <c r="I39" s="22" t="n">
+      <c r="I39" s="14">
         <v>20</v>
       </c>
-      <c r="J39" s="22" t="n">
+      <c r="J39" s="14">
         <v>5</v>
       </c>
-      <c r="K39" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="22" t="n">
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14">
         <v>11</v>
       </c>
-      <c r="M39" s="38" t="n">
+      <c r="M39" s="22">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="22" t="n">
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="14">
         <v>3</v>
       </c>
-      <c r="H40" s="22" t="n">
+      <c r="H40" s="14">
         <v>5</v>
       </c>
-      <c r="I40" s="22" t="n">
+      <c r="I40" s="14">
         <v>25</v>
       </c>
-      <c r="J40" s="22" t="n">
+      <c r="J40" s="14">
         <v>13</v>
       </c>
-      <c r="K40" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="38" t="n">
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="22" t="n">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14">
         <v>5</v>
       </c>
-      <c r="J41" s="22" t="n">
+      <c r="J41" s="14">
         <v>21</v>
       </c>
-      <c r="K41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="38" t="n">
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="22" t="n">
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14">
         <v>5</v>
       </c>
-      <c r="J42" s="22" t="n">
+      <c r="J42" s="14">
         <v>11</v>
       </c>
-      <c r="K42" s="22" t="n">
+      <c r="K42" s="14">
         <v>27</v>
       </c>
-      <c r="L42" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="38" t="n">
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22" t="n">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
         <v>2</v>
       </c>
-      <c r="H43" s="22" t="n">
+      <c r="H43" s="14">
         <v>2</v>
       </c>
-      <c r="I43" s="22" t="n">
+      <c r="I43" s="14">
         <v>10</v>
       </c>
-      <c r="J43" s="22" t="n">
+      <c r="J43" s="14">
         <v>21</v>
       </c>
-      <c r="K43" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="38" t="n">
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>2</v>
+      </c>
+      <c r="H44" s="14">
+        <v>2</v>
+      </c>
+      <c r="I44" s="14">
+        <v>10</v>
+      </c>
+      <c r="J44" s="14">
+        <v>21</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2</v>
+      </c>
+      <c r="H45" s="14">
+        <v>2</v>
+      </c>
+      <c r="I45" s="14">
+        <v>10</v>
+      </c>
+      <c r="J45" s="14">
+        <v>21</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>2</v>
+      </c>
+      <c r="H46" s="14">
+        <v>2</v>
+      </c>
+      <c r="I46" s="14">
+        <v>10</v>
+      </c>
+      <c r="J46" s="14">
+        <v>21</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>2</v>
+      </c>
+      <c r="H47" s="14">
+        <v>2</v>
+      </c>
+      <c r="I47" s="14">
+        <v>10</v>
+      </c>
+      <c r="J47" s="14">
+        <v>21</v>
+      </c>
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14">
+        <v>0</v>
+      </c>
+      <c r="M47" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>2</v>
+      </c>
+      <c r="H48" s="14">
+        <v>2</v>
+      </c>
+      <c r="I48" s="14">
+        <v>10</v>
+      </c>
+      <c r="J48" s="14">
+        <v>21</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <v>0</v>
+      </c>
+      <c r="M48" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>2</v>
+      </c>
+      <c r="H49" s="14">
+        <v>2</v>
+      </c>
+      <c r="I49" s="14">
+        <v>10</v>
+      </c>
+      <c r="J49" s="14">
+        <v>21</v>
+      </c>
+      <c r="K49" s="14">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <v>0</v>
+      </c>
+      <c r="M49" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
+      <c r="H50" s="14">
+        <v>2</v>
+      </c>
+      <c r="I50" s="14">
+        <v>10</v>
+      </c>
+      <c r="J50" s="14">
+        <v>21</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <v>0</v>
+      </c>
+      <c r="M50" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <v>2</v>
+      </c>
+      <c r="H51" s="14">
+        <v>2</v>
+      </c>
+      <c r="I51" s="14">
+        <v>10</v>
+      </c>
+      <c r="J51" s="14">
+        <v>21</v>
+      </c>
+      <c r="K51" s="14">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14">
+        <v>0</v>
+      </c>
+      <c r="M51" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <v>2</v>
+      </c>
+      <c r="H52" s="14">
+        <v>2</v>
+      </c>
+      <c r="I52" s="14">
+        <v>10</v>
+      </c>
+      <c r="J52" s="14">
+        <v>21</v>
+      </c>
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0</v>
+      </c>
+      <c r="M52" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>2</v>
+      </c>
+      <c r="H53" s="14">
+        <v>2</v>
+      </c>
+      <c r="I53" s="14">
+        <v>10</v>
+      </c>
+      <c r="J53" s="14">
+        <v>21</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>2</v>
+      </c>
+      <c r="H54" s="14">
+        <v>2</v>
+      </c>
+      <c r="I54" s="14">
+        <v>10</v>
+      </c>
+      <c r="J54" s="14">
+        <v>21</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="22">
         <v>31</v>
       </c>
     </row>
@@ -3715,6 +4292,7 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
   </mergeCells>
-  <pageMargins bottom="0.25" footer="0.5" header="0.5" left="0.25" right="0.25" top="0.25"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>